--- a/data/trans_camb/P25_1-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,83</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,27</t>
+          <t>-6,11; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,8</t>
+          <t>-5,14; 1,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,77</t>
+          <t>-4,41; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,39</t>
+          <t>-0,06; 7,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,88</t>
+          <t>-3,45; 4,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,42</t>
+          <t>-3,53; 2,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,99</t>
+          <t>-3,03; 2,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,42</t>
+          <t>-2,05; 4,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,84</t>
+          <t>-1,87; 4,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 4,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 0,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 1,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 5,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>-23,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,02%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-16,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 18,8</t>
+          <t>-49,6; 12,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 27,04</t>
+          <t>-44,37; 21,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 87,93</t>
+          <t>-38,21; 36,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 42,72</t>
+          <t>-1,95; 102,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 49,18</t>
+          <t>-24,66; 41,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 91,74</t>
+          <t>-39,6; 34,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 14,04</t>
+          <t>-33,25; 42,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 20,23</t>
+          <t>-24,1; 78,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 69,03</t>
+          <t>-17,75; 73,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 62,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-36,86; 10,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 18,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-21,84; 39,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 71,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 34,42</t>
         </is>
       </c>
     </row>
@@ -848,32 +1016,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +1051,42 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,52</t>
+          <t>-2,29; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,04</t>
+          <t>-1,81; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 8,24</t>
+          <t>-0,26; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 0,63</t>
+          <t>-1,75; 6,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,7</t>
+          <t>-3,59; 6,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,31</t>
+          <t>-5,5; 0,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,06</t>
+          <t>-4,46; 1,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,87</t>
+          <t>-3,25; 5,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,76</t>
+          <t>-1,48; 10,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 12,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 7,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 7,99</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>46,99%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>42,7%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 86,0</t>
+          <t>-31,31; 84,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 99,0</t>
+          <t>-26,16; 86,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 187,73</t>
+          <t>-5,96; 136,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 11,16</t>
+          <t>-20,75; 97,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 23,09</t>
+          <t>-31,87; 114,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 58,28</t>
+          <t>-53,41; 12,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 17,8</t>
+          <t>-44,91; 24,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 30,62</t>
+          <t>-32,72; 77,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 75,46</t>
+          <t>-15,02; 143,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 223,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 21,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 36,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 77,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 93,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 115,31</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-3,85</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,76</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,07</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,73</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,97</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 1,26</t>
+          <t>-11,63; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -3,29</t>
+          <t>-14,26; 0,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-12,93; 3,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 1,02</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-13,41; 1,42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 4,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 11,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-13,46; -1,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; -1,64</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,68; 0,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 0,25</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 5,08</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,38%</t>
+          <t>-28,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-65,58%</t>
+          <t>-52,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-29,73%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-44,33%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-41,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-23,87%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-44,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-49,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-35,3%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-38,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-12,35%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 19,94</t>
+          <t>-64,03; 61,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,11; -20,09</t>
+          <t>-80,67; 16,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-69,86; 49,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-75,23; 17,97</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 57,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-74,84; 19,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,06; 54,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-48,99; 138,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-68,33; -7,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-70,32; -12,16</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-64,91; 10,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-65,35; 5,66</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 52,85</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,73</t>
+          <t>-3,38; 0,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,66</t>
+          <t>-3,55; 0,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,49</t>
+          <t>-1,9; 2,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,03</t>
+          <t>0,45; 6,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,14</t>
+          <t>-2,52; 3,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,95</t>
+          <t>-3,98; 0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,42</t>
+          <t>-2,92; 1,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,36</t>
+          <t>-1,51; 3,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,5</t>
+          <t>-1,03; 4,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,37</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; -0,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 0,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 2,54</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,74</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-21,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 11,11</t>
+          <t>-34,94; 13,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 9,82</t>
+          <t>-36,34; 13,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 75,34</t>
+          <t>-20,59; 38,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 0,76</t>
+          <t>3,13; 80,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 14,94</t>
+          <t>-19,36; 39,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 39,74</t>
+          <t>-41,47; 1,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,84; -4,66</t>
+          <t>-31,13; 18,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 4,78</t>
+          <t>-15,82; 45,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 45,46</t>
+          <t>-11,05; 57,3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 75,09</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,46; -0,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-27,78; 5,88</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 33,7</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 57,98</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 40,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
